--- a/isomif2019/Benchmark_isomif_parameters.xlsx
+++ b/isomif2019/Benchmark_isomif_parameters.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="github files" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="zip files" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="141">
   <si>
     <t xml:space="preserve">Isomif Paper</t>
   </si>
@@ -454,11 +455,12 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -476,12 +478,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -494,6 +490,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -543,15 +540,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,7 +560,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -586,52 +583,52 @@
   </sheetPr>
   <dimension ref="B2:BD106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2:AB106"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR3" activeCellId="0" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.71428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.05612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.30102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.02040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.93877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.13775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.16836734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.13775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.41836734693878"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.46428571428571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.46938775510204"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.52551020408163"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.38775510204082"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.49489795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.58163265306122"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.89285714285714"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.11224489795918"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="3.05102040816327"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.69897959183674"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.71428571428571"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.37244897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.83673469387755"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.53571428571429"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9412,4 +9409,6018 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:AP107"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN19" activeCellId="0" sqref="AN19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.03571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.51530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.53061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.18877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.35714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.53061224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.19387755102041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.53061224489796"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.69387755102041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.53061224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.67857142857143"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.2040816326531"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.69387755102041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.51530612244898"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.03061224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.85714285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="2.93367346938775"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.47448979591837"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.37244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="AE4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.887654320988</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.806790123457</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>0.806790123457</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4" t="n">
+        <v>0.573</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.765432098765</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0.461728395062</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0.461728395062</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.693827160494</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0.562962962963</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0.562962962963</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4" t="n">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.972222222222</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0.58024691358</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>0.58024691358</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.766666666667</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="P10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0.675925925926</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="W10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0.675925925926</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AD10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4" t="n">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="I11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.678395061728</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="P11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0.61049382716</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="W11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>0.61049382716</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AD11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4" t="n">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D6:D15,1)</f>
+        <v>0.6375</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.348765432099</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K6:K15,1)</f>
+        <v>0.635185185185</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0.512962962963</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R6:R15,1)</f>
+        <v>0.550462962963</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0.512962962963</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y7:Y16,1)</f>
+        <v>0.50015432098775</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D6:D15,2)</f>
+        <v>0.725</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.981481481481</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K6:K15,2)</f>
+        <v>0.766049382716</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0.566049382716</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R6:R15,2)</f>
+        <v>0.586111111111</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0.566049382716</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y7:Y16,2)</f>
+        <v>0.573148148148</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" s="4" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4" t="n">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D6:D15,3)</f>
+        <v>0.765</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.505555555556</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K6:K15,3)</f>
+        <v>0.9087962962965</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0.878395061728</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R6:R15,3)</f>
+        <v>0.70864197530875</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0.878395061728</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y7:Y16,3)</f>
+        <v>0.6268518518515</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">AVERAGE(D6:D15)</f>
+        <v>0.705</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.816049382716</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <f aca="false">AVERAGE(K6:K15)</f>
+        <v>0.7416049382716</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0.591975308642</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <f aca="false">AVERAGE(R6:R15)</f>
+        <v>0.6247530864197</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0.591975308642</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <f aca="false">AVERAGE(Y7:Y16)</f>
+        <v>0.583086419753</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="I16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.790740740741</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="P16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0.39012345679</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="W16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0.39012345679</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AD16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4" t="n">
+        <v>0.71196913580247</v>
+      </c>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4" t="n">
+        <v>0.7356543209876</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4" t="n">
+        <v>0.7356543209876</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0.828395061728</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0.522222222222</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="W17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0.522222222222</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.724074074074</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="P18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>0.186419753086</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="W18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>0.186419753086</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.811728395062</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="W19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.627160493827</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>0.585185185185</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="W20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>0.585185185185</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AE20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="I21" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.746913580247</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="P21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>0.543209876543</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="W21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>0.543209876543</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AE21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D16:D25,1)</f>
+        <v>0.59</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.820987654321</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K16:K25,1)</f>
+        <v>0.74120370370375</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>0.804938271605</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R16:R25,1)</f>
+        <v>0.34336419753075</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>0.804938271605</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y17:Y26,1)</f>
+        <v>0.42577160493825</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D16:D25,2)</f>
+        <v>0.635</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.871604938272</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K16:K25,2)</f>
+        <v>0.808641975309</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>0.535802469136</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R16:R25,2)</f>
+        <v>0.5197530864195</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>0.535802469136</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y17:Y26,2)</f>
+        <v>0.529012345679</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D16:D25,3)</f>
+        <v>0.685</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.805555555556</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K16:K25,3)</f>
+        <v>0.839197530864</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>0.517283950617</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R16:R25,3)</f>
+        <v>0.5537037037035</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>0.517283950617</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y17:Y26,3)</f>
+        <v>0.64012345679</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <f aca="false">AVERAGE(D16:D25)</f>
+        <v>0.605</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>0.888888888889</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <f aca="false">AVERAGE(K16:K25)</f>
+        <v>0.7916049382717</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>0.203086419753</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <f aca="false">AVERAGE(R16:R25)</f>
+        <v>0.4788271604937</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>0.203086419753</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <f aca="false">AVERAGE(Y17:Y26)</f>
+        <v>0.5205555555554</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>0.714814814815</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>0.807407407407</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="W26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>0.807407407407</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>0.920987654321</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="P27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>0.794444444444</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="W27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>0.794444444444</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>0.851851851852</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>0.522222222222</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="W28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="5" t="n">
+        <v>0.522222222222</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>0.725925925926</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="P29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>0.564197530864</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="W29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y29" s="5" t="n">
+        <v>0.564197530864</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>0.935185185185</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="P30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>0.922222222222</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="W30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="5" t="n">
+        <v>0.922222222222</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="I31" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>0.734567901235</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="P31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="5" t="n">
+        <v>0.641975308642</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="W31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31" s="5" t="n">
+        <v>0.641975308642</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D26:D35,1)</f>
+        <v>0.8275</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>0.512962962963</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K26:K35,1)</f>
+        <v>0.63657407407425</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>0.682098765432</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R26:R35,1)</f>
+        <v>0.5537037037035</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="5" t="n">
+        <v>0.682098765432</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB32" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y27:Y36,1)</f>
+        <v>0.5537037037035</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D26:D35,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>0.241358024691</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K26:K35,2)</f>
+        <v>0.7302469135805</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>0.602469135802</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R26:R35,2)</f>
+        <v>0.662037037037</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" s="5" t="n">
+        <v>0.602469135802</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB33" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y27:Y36,2)</f>
+        <v>0.662037037037</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D26:D35,3)</f>
+        <v>0.885</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>0.677777777778</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K26:K35,3)</f>
+        <v>0.86913580246925</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" s="5" t="n">
+        <v>0.706172839506</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R26:R35,3)</f>
+        <v>0.79768518518475</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" s="5" t="n">
+        <v>0.706172839506</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y27:Y36,3)</f>
+        <v>0.774537037037</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <f aca="false">AVERAGE(D26:D35)</f>
+        <v>0.861</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>0.781481481481</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="5" t="n">
+        <f aca="false">AVERAGE(K26:K35)</f>
+        <v>0.7096913580247</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>0.503086419753</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="5" t="n">
+        <f aca="false">AVERAGE(R26:R35)</f>
+        <v>0.6746296296294</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" s="5" t="n">
+        <v>0.503086419753</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" s="5" t="n">
+        <f aca="false">AVERAGE(Y27:Y36)</f>
+        <v>0.6706790123455</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>0.63024691358</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>0.767901234568</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="W36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="5" t="n">
+        <v>0.767901234568</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>0.83024691358</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="P37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>0.669135802469</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="W37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="5" t="n">
+        <v>0.669135802469</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>0.745061728395</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="W38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y38" s="5" t="n">
+        <v>0.745061728395</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>0.875308641975</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>0.918518518519</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="W39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="5" t="n">
+        <v>0.918518518519</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>0.894444444444</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="5" t="n">
+        <v>0.688888888889</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="W40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y40" s="5" t="n">
+        <v>0.688888888889</v>
+      </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="I41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>0.535802469136</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="P41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="5" t="n">
+        <v>0.613580246914</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="W41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="5" t="n">
+        <v>0.613580246914</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D36:D45,1)</f>
+        <v>0.8725</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>0.828395061728</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K36:K45,1)</f>
+        <v>0.606635802469</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" s="5" t="n">
+        <v>0.946913580247</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U42" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R36:R45,1)</f>
+        <v>0.65077160493825</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y42" s="5" t="n">
+        <v>0.946913580247</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB42" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y37:Y46,1)</f>
+        <v>0.65077160493825</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D36:D45,2)</f>
+        <v>0.91</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>0.836419753086</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K36:K45,2)</f>
+        <v>0.741975308642</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="5" t="n">
+        <v>0.643827160494</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R36:R45,2)</f>
+        <v>0.716975308642</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="5" t="n">
+        <v>0.643827160494</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB43" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y37:Y46,2)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D36:D45,3)</f>
+        <v>0.9575</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>0.655555555556</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K36:K45,3)</f>
+        <v>0.84614197530825</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="5" t="n">
+        <v>0.653086419753</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R36:R45,3)</f>
+        <v>0.925617283951</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y44" s="5" t="n">
+        <v>0.653086419753</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB44" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y37:Y46,3)</f>
+        <v>0.925617283951</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <f aca="false">AVERAGE(D36:D45)</f>
+        <v>0.911</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>0.650617283951</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="5" t="n">
+        <f aca="false">AVERAGE(K36:K45)</f>
+        <v>0.7237037037036</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="5" t="n">
+        <v>0.986419753086</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U45" s="5" t="n">
+        <f aca="false">AVERAGE(R36:R45)</f>
+        <v>0.7633333333334</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y45" s="5" t="n">
+        <v>0.986419753086</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB45" s="5" t="n">
+        <f aca="false">AVERAGE(Y37:Y46)</f>
+        <v>0.7576543209877</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="I46" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>0.866049382716</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="P46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" s="5" t="n">
+        <v>0.711111111111</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="W46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y46" s="5" t="n">
+        <v>0.711111111111</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>0.515432098765</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="P47" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="5" t="n">
+        <v>0.985185185185</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="W47" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="5" t="n">
+        <v>0.985185185185</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>0.553086419753</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="P48" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="5" t="n">
+        <v>0.933333333333</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="W48" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y48" s="5" t="n">
+        <v>0.933333333333</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="I49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>0.595061728395</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="P49" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="5" t="n">
+        <v>0.852469135802</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="W49" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y49" s="5" t="n">
+        <v>0.852469135802</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="I50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>0.943209876543</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="P50" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>0.838271604938</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="W50" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y50" s="5" t="n">
+        <v>0.838271604938</v>
+      </c>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="I51" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>0.464197530864</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="P51" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="5" t="n">
+        <v>0.785185185185</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="W51" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="5" t="n">
+        <v>0.785185185185</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D46:D55,1)</f>
+        <v>0.8075</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>0.951851851852</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K46:K55,1)</f>
+        <v>0.51249999999975</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="5" t="n">
+        <v>0.87037037037</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U52" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R46:R55,1)</f>
+        <v>0.82499999999975</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y52" s="5" t="n">
+        <v>0.87037037037</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB52" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y47:Y56,1)</f>
+        <v>0.8484567901235</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D46:D55,2)</f>
+        <v>0.885</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>0.545061728395</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N53" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K46:K55,2)</f>
+        <v>0.574074074074</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" s="5" t="n">
+        <v>0.942592592593</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R46:R55,2)</f>
+        <v>0.889197530864</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="5" t="n">
+        <v>0.942592592593</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB53" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y47:Y56,2)</f>
+        <v>0.889197530864</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D46:D55,3)</f>
+        <v>0.92</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>0.503703703704</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K46:K55,3)</f>
+        <v>0.88533950617275</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="5" t="n">
+        <v>0.908024691358</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R46:R55,3)</f>
+        <v>0.935648148148</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="5" t="n">
+        <v>0.908024691358</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB54" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y47:Y56,3)</f>
+        <v>0.935648148148</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <f aca="false">AVERAGE(D46:D55)</f>
+        <v>0.861</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>0.713580246914</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="5" t="n">
+        <f aca="false">AVERAGE(K46:K55)</f>
+        <v>0.6651234567901</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" s="5" t="n">
+        <v>0.918518518519</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U55" s="5" t="n">
+        <f aca="false">AVERAGE(R46:R55)</f>
+        <v>0.8745061728394</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="5" t="n">
+        <v>0.918518518519</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB55" s="5" t="n">
+        <f aca="false">AVERAGE(Y47:Y56)</f>
+        <v>0.8885802469135</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>0.894444444444</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="P56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" s="5" t="n">
+        <v>0.851851851852</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="W56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y56" s="5" t="n">
+        <v>0.851851851852</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="I57" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>0.705555555556</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="P57" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R57" s="5" t="n">
+        <v>0.932098765432</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="W57" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y57" s="5" t="n">
+        <v>0.932098765432</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="I58" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>0.959259259259</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="P58" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R58" s="5" t="n">
+        <v>0.967283950617</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="W58" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y58" s="5" t="n">
+        <v>0.967283950617</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>0.538888888889</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="P59" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R59" s="5" t="n">
+        <v>0.697530864198</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="W59" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y59" s="5" t="n">
+        <v>0.697530864198</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="I60" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>0.86049382716</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="P60" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="5" t="n">
+        <v>0.973456790123</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="W60" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y60" s="5" t="n">
+        <v>0.973456790123</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="I61" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>0.935802469136</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="P61" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" s="5" t="n">
+        <v>0.603703703704</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" s="1"/>
+      <c r="W61" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y61" s="5" t="n">
+        <v>0.603703703704</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D56:D65,1)</f>
+        <v>0.92</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>0.509259259259</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K56:K65,1)</f>
+        <v>0.55601851851875</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" s="5" t="n">
+        <v>0.945679012346</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U62" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R56:R65,1)</f>
+        <v>0.8132716049385</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y62" s="5" t="n">
+        <v>0.945679012346</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB62" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y57:Y66,1)</f>
+        <v>0.8146604938275</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D56:D65,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>0.603086419753</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K56:K65,2)</f>
+        <v>0.731790123457</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R63" s="5" t="n">
+        <v>0.925925925926</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U63" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R56:R65,2)</f>
+        <v>0.9265432098765</v>
+      </c>
+      <c r="W63" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y63" s="5" t="n">
+        <v>0.925925925926</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB63" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y57:Y66,2)</f>
+        <v>0.9265432098765</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D56:D65,3)</f>
+        <v>0.95</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>0.758024691358</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N64" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K56:K65,3)</f>
+        <v>0.904783950617</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R64" s="5" t="n">
+        <v>0.853703703704</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R56:R65,3)</f>
+        <v>0.95108024691375</v>
+      </c>
+      <c r="W64" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y64" s="5" t="n">
+        <v>0.853703703704</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB64" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y57:Y66,3)</f>
+        <v>0.95108024691375</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <f aca="false">AVERAGE(D56:D65)</f>
+        <v>0.921</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>0.561728395062</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="5" t="n">
+        <f aca="false">AVERAGE(K56:K65)</f>
+        <v>0.7326543209876</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R65" s="5" t="n">
+        <v>0.927160493827</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U65" s="5" t="n">
+        <f aca="false">AVERAGE(R56:R65)</f>
+        <v>0.8678395061729</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y65" s="5" t="n">
+        <v>0.927160493827</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB65" s="5" t="n">
+        <f aca="false">AVERAGE(Y57:Y66)</f>
+        <v>0.8751234567902</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="I66" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>0.762345679012</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="P66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R66" s="5" t="n">
+        <v>0.924691358025</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="W66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y66" s="5" t="n">
+        <v>0.924691358025</v>
+      </c>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="I67" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>0.623456790123</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="P67" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R67" s="5" t="n">
+        <v>0.956790123457</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="W67" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y67" s="5" t="n">
+        <v>0.956790123457</v>
+      </c>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="I68" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>0.633950617284</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="P68" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R68" s="5" t="n">
+        <v>0.974074074074</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="W68" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" s="5" t="n">
+        <v>0.974074074074</v>
+      </c>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="I69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>0.573456790123</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="P69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R69" s="5" t="n">
+        <v>0.976543209877</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="W69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y69" s="5" t="n">
+        <v>0.976543209877</v>
+      </c>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="I70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>0.945061728395</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="P70" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R70" s="5" t="n">
+        <v>0.578395061728</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="W70" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y70" s="5" t="n">
+        <v>0.578395061728</v>
+      </c>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="I71" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="5" t="n">
+        <v>0.595679012346</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="P71" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R71" s="5" t="n">
+        <v>0.957407407407</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" s="1"/>
+      <c r="W71" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y71" s="5" t="n">
+        <v>0.957407407407</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D66:D75,1)</f>
+        <v>0.9475</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" s="5" t="n">
+        <v>0.606172839506</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K66:K75,1)</f>
+        <v>0.603549382716</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" s="5" t="n">
+        <v>0.469135802469</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U72" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R66:R75,1)</f>
+        <v>0.615895061728</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y72" s="5" t="n">
+        <v>0.469135802469</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB72" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y67:Y76,1)</f>
+        <v>0.615895061728</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D66:D75,2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" s="5" t="n">
+        <v>0.709259259259</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N73" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K66:K75,2)</f>
+        <v>0.6626543209875</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R73" s="5" t="n">
+        <v>0.94012345679</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U73" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R66:R75,2)</f>
+        <v>0.9484567901235</v>
+      </c>
+      <c r="W73" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y73" s="5" t="n">
+        <v>0.94012345679</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB73" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y67:Y76,2)</f>
+        <v>0.9484567901235</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D66:D75,3)</f>
+        <v>0.97</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="5" t="n">
+        <v>0.691358024691</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N74" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K66:K75,3)</f>
+        <v>0.8023148148145</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R74" s="5" t="n">
+        <v>0.628395061728</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R66:R75,3)</f>
+        <v>0.972685185185</v>
+      </c>
+      <c r="W74" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y74" s="5" t="n">
+        <v>0.628395061728</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB74" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y67:Y76,3)</f>
+        <v>0.972685185185</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <f aca="false">AVERAGE(D66:D75)</f>
+        <v>0.964</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>0.922222222222</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" s="5" t="n">
+        <f aca="false">AVERAGE(K66:K75)</f>
+        <v>0.7062962962961</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R75" s="5" t="n">
+        <v>0.972222222222</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U75" s="5" t="n">
+        <f aca="false">AVERAGE(R66:R75)</f>
+        <v>0.8377777777777</v>
+      </c>
+      <c r="W75" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y75" s="5" t="n">
+        <v>0.972222222222</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB75" s="5" t="n">
+        <f aca="false">AVERAGE(Y67:Y76)</f>
+        <v>0.8086419753085</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="I76" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>0.812962962963</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="P76" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R76" s="5" t="n">
+        <v>0.633333333333</v>
+      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="W76" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y76" s="5" t="n">
+        <v>0.633333333333</v>
+      </c>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="I77" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <v>0.792592592593</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="P77" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R77" s="5" t="n">
+        <v>0.89012345679</v>
+      </c>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="W77" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y77" s="5" t="n">
+        <v>0.89012345679</v>
+      </c>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="I78" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <v>0.971604938272</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="P78" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R78" s="5" t="n">
+        <v>0.553703703704</v>
+      </c>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="W78" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y78" s="5" t="n">
+        <v>0.553703703704</v>
+      </c>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="I79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>0.517283950617</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="P79" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R79" s="5" t="n">
+        <v>0.917901234568</v>
+      </c>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="W79" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y79" s="5" t="n">
+        <v>0.917901234568</v>
+      </c>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="I80" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>0.691358024691</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="P80" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R80" s="5" t="n">
+        <v>0.945061728395</v>
+      </c>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="W80" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y80" s="5" t="n">
+        <v>0.945061728395</v>
+      </c>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="I81" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <v>0.518518518519</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="P81" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R81" s="5" t="n">
+        <v>0.657407407407</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U81" s="1"/>
+      <c r="W81" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y81" s="5" t="n">
+        <v>0.657407407407</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D76:D85,1)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="5" t="n">
+        <v>0.427777777778</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K76:K85,1)</f>
+        <v>0.49490740740725</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R82" s="5" t="n">
+        <v>0.900617283951</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U82" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R76:R85,1)</f>
+        <v>0.61851851851825</v>
+      </c>
+      <c r="W82" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y82" s="5" t="n">
+        <v>0.900617283951</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB82" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y77:Y86,1)</f>
+        <v>0.63657407407375</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D76:D85,2)</f>
+        <v>0.845</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="5" t="n">
+        <v>0.421604938272</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K76:K85,2)</f>
+        <v>0.683950617284</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R83" s="5" t="n">
+        <v>0.574074074074</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U83" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R76:R85,2)</f>
+        <v>0.862037037037</v>
+      </c>
+      <c r="W83" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y83" s="5" t="n">
+        <v>0.574074074074</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB83" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y77:Y86,2)</f>
+        <v>0.862037037037</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D76:D85,3)</f>
+        <v>0.8825</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <v>0.943209876543</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N84" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K76:K85,3)</f>
+        <v>0.845524691358</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R84" s="5" t="n">
+        <v>0.944444444444</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R76:R85,3)</f>
+        <v>0.924537037037</v>
+      </c>
+      <c r="W84" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y84" s="5" t="n">
+        <v>0.944444444444</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB84" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y77:Y86,3)</f>
+        <v>0.924537037037</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <f aca="false">AVERAGE(D76:D85)</f>
+        <v>0.744</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K85" s="5" t="n">
+        <v>0.676543209877</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N85" s="5" t="n">
+        <f aca="false">AVERAGE(K76:K85)</f>
+        <v>0.6773456790125</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R85" s="5" t="n">
+        <v>0.833950617284</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U85" s="5" t="n">
+        <f aca="false">AVERAGE(R76:R85)</f>
+        <v>0.785061728395</v>
+      </c>
+      <c r="W85" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y85" s="5" t="n">
+        <v>0.833950617284</v>
+      </c>
+      <c r="AA85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB85" s="5" t="n">
+        <f aca="false">AVERAGE(Y77:Y86)</f>
+        <v>0.7962962962963</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="I86" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K86" s="5" t="n">
+        <v>0.813580246914</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="P86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R86" s="5" t="n">
+        <v>0.745679012346</v>
+      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="W86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y86" s="5" t="n">
+        <v>0.745679012346</v>
+      </c>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="I87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="5" t="n">
+        <v>0.511111111111</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="P87" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R87" s="5" t="n">
+        <v>0.638271604938</v>
+      </c>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="W87" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y87" s="5" t="n">
+        <v>0.638271604938</v>
+      </c>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="I88" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K88" s="5" t="n">
+        <v>0.516666666667</v>
+      </c>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="P88" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R88" s="5" t="n">
+        <v>0.613580246914</v>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="W88" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y88" s="5" t="n">
+        <v>0.613580246914</v>
+      </c>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="I89" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="5" t="n">
+        <v>0.92962962963</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="P89" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R89" s="5" t="n">
+        <v>0.495679012346</v>
+      </c>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="W89" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y89" s="5" t="n">
+        <v>0.495679012346</v>
+      </c>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="I90" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" s="5" t="n">
+        <v>0.651234567901</v>
+      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="P90" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R90" s="5" t="n">
+        <v>0.661111111111</v>
+      </c>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="W90" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y90" s="5" t="n">
+        <v>0.661111111111</v>
+      </c>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="I91" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="5" t="n">
+        <v>0.495061728395</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="P91" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R91" s="5" t="n">
+        <v>0.76049382716</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U91" s="1"/>
+      <c r="W91" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y91" s="5" t="n">
+        <v>0.76049382716</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D86:D95,1)</f>
+        <v>0.5825</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92" s="5" t="n">
+        <v>0.959259259259</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K86:K95,1)</f>
+        <v>0.515277777778</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R92" s="5" t="n">
+        <v>0.587037037037</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U92" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R86:R95,1)</f>
+        <v>0.57469135802475</v>
+      </c>
+      <c r="W92" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y92" s="5" t="n">
+        <v>0.587037037037</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB92" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y87:Y96,1)</f>
+        <v>0.57469135802475</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D86:D95,2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K93" s="5" t="n">
+        <v>0.914814814815</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N93" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K86:K95,2)</f>
+        <v>0.7324074074075</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R93" s="5" t="n">
+        <v>0.717901234568</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U93" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R86:R95,2)</f>
+        <v>0.6496913580245</v>
+      </c>
+      <c r="W93" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y93" s="5" t="n">
+        <v>0.717901234568</v>
+      </c>
+      <c r="AA93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB93" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y87:Y96,2)</f>
+        <v>0.6496913580245</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D86:D95,3)</f>
+        <v>0.8325</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="5" t="n">
+        <v>0.621604938272</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K86:K95,3)</f>
+        <v>0.91851851851875</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R94" s="5" t="n">
+        <v>0.775925925926</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U94" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R86:R95,3)</f>
+        <v>0.7493827160495</v>
+      </c>
+      <c r="W94" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y94" s="5" t="n">
+        <v>0.775925925926</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB94" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y87:Y96,3)</f>
+        <v>0.7643518518515</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <f aca="false">AVERAGE(D86:D95)</f>
+        <v>0.691</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="5" t="n">
+        <v>0.830864197531</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N95" s="5" t="n">
+        <f aca="false">AVERAGE(K86:K95)</f>
+        <v>0.7243827160495</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R95" s="5" t="n">
+        <v>0.537654320988</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U95" s="5" t="n">
+        <f aca="false">AVERAGE(R86:R95)</f>
+        <v>0.6533333333334</v>
+      </c>
+      <c r="W95" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y95" s="5" t="n">
+        <v>0.537654320988</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB95" s="5" t="n">
+        <f aca="false">AVERAGE(Y87:Y96)</f>
+        <v>0.6572839506173</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="I96" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="5" t="n">
+        <v>0.763580246914</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="P96" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R96" s="5" t="n">
+        <v>0.785185185185</v>
+      </c>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="W96" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y96" s="5" t="n">
+        <v>0.785185185185</v>
+      </c>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="I97" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="5" t="n">
+        <v>0.596296296296</v>
+      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="P97" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R97" s="5" t="n">
+        <v>0.732716049383</v>
+      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="W97" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y97" s="5" t="n">
+        <v>0.732716049383</v>
+      </c>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="I98" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="5" t="n">
+        <v>0.693827160494</v>
+      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="P98" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R98" s="5" t="n">
+        <v>0.815432098765</v>
+      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="W98" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y98" s="5" t="n">
+        <v>0.815432098765</v>
+      </c>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="I99" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" s="5" t="n">
+        <v>0.777160493827</v>
+      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="P99" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R99" s="5" t="n">
+        <v>0.858024691358</v>
+      </c>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="W99" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y99" s="5" t="n">
+        <v>0.858024691358</v>
+      </c>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="I100" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K100" s="5" t="n">
+        <v>0.943209876543</v>
+      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="P100" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R100" s="5" t="n">
+        <v>0.783333333333</v>
+      </c>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="W100" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y100" s="5" t="n">
+        <v>0.783333333333</v>
+      </c>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="I101" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101" s="5" t="n">
+        <v>0.91975308642</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="P101" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R101" s="5" t="n">
+        <v>0.926543209877</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U101" s="1"/>
+      <c r="W101" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y101" s="5" t="n">
+        <v>0.926543209877</v>
+      </c>
+      <c r="AA101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D96:D105,1)</f>
+        <v>0.7075</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="5" t="n">
+        <v>0.565432098765</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K96:K105,1)</f>
+        <v>0.51697530864225</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R102" s="5" t="n">
+        <v>0.682716049383</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U102" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R96:R105,1)</f>
+        <v>0.720216049383</v>
+      </c>
+      <c r="W102" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y102" s="5" t="n">
+        <v>0.682716049383</v>
+      </c>
+      <c r="AA102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB102" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y97:Y106,1)</f>
+        <v>0.720216049383</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D96:D105,2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" s="5" t="n">
+        <v>0.503086419753</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N103" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K96:K105,2)</f>
+        <v>0.645061728395</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R103" s="5" t="n">
+        <v>0.781481481481</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U103" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R96:R105,2)</f>
+        <v>0.784259259259</v>
+      </c>
+      <c r="W103" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y103" s="5" t="n">
+        <v>0.781481481481</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB103" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y97:Y106,2)</f>
+        <v>0.782407407407</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D96:D105,3)</f>
+        <v>0.83</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K104" s="5" t="n">
+        <v>0.521604938272</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(K96:K105,3)</f>
+        <v>0.81280864197525</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R104" s="5" t="n">
+        <v>0.612962962963</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U104" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(R96:R105,3)</f>
+        <v>0.87515432098775</v>
+      </c>
+      <c r="W104" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y104" s="5" t="n">
+        <v>0.612962962963</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB104" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Y97:Y106,3)</f>
+        <v>0.87515432098775</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <f aca="false">AVERAGE(D96:D105)</f>
+        <v>0.766</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" s="5" t="n">
+        <v>0.188888888889</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N105" s="5" t="n">
+        <f aca="false">AVERAGE(K96:K105)</f>
+        <v>0.6472839506173</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R105" s="5" t="n">
+        <v>0.986419753086</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U105" s="5" t="n">
+        <f aca="false">AVERAGE(R96:R105)</f>
+        <v>0.7964814814814</v>
+      </c>
+      <c r="W105" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y105" s="5" t="n">
+        <v>0.986419753086</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB105" s="5" t="n">
+        <f aca="false">AVERAGE(Y97:Y106)</f>
+        <v>0.7915283950617</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="0" t="n">
+        <f aca="false">AVERAGE(D6:D105)</f>
+        <v>0.8029</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K106" s="5" t="n">
+        <v>0.711969135802</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="R106" s="5" t="n">
+        <v>0.735654320988</v>
+      </c>
+      <c r="W106" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y106" s="5" t="n">
+        <v>0.735654320988</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K107" s="0" t="n">
+        <f aca="false">AVERAGE(K6:K105)</f>
+        <v>0.71196913580247</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <f aca="false">AVERAGE(R6:R105)</f>
+        <v>0.7356543209876</v>
+      </c>
+      <c r="Y107" s="0" t="n">
+        <f aca="false">AVERAGE(Y6:Y105)</f>
+        <v>0.7356543209876</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/isomif2019/Benchmark_isomif_parameters.xlsx
+++ b/isomif2019/Benchmark_isomif_parameters.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="github files" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="zip files" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Resumen" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="143">
   <si>
     <t xml:space="preserve">Isomif Paper</t>
   </si>
@@ -445,6 +446,12 @@
   <si>
     <t xml:space="preserve">Mean</t>
   </si>
+  <si>
+    <t xml:space="preserve">RESUMEN ZIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESUMEN GITHUB</t>
+  </si>
 </sst>
 </file>
 
@@ -589,46 +596,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.12755102040816"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.83673469387755"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.66836734693878"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,41 +9422,41 @@
   </sheetPr>
   <dimension ref="B3:AP107"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN19" activeCellId="0" sqref="AN19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD3" activeCellId="0" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.53061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.51530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.53061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.18877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.35714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.53061224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.53061224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.69387755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.53061224489796"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.67857142857143"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.2040816326531"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.69387755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.51530612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.82142857142857"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.03061224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="2.93367346938775"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.37244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="2.83673469387755"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15423,4 +15427,704 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:N40"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="I6" s="4" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="n">
+        <v>0.573</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="n">
+        <v>0.809</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="I7" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="I8" s="4" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="n">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="I9" s="4" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="I10" s="4" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="n">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="I11" s="4" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="n">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="I12" s="4" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="I13" s="4" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="n">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="I14" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="I15" s="4" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="n">
+        <v>0.782</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="n">
+        <v>0.71196913580247</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="I16" s="4" t="n">
+        <v>0.7356543209876</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="n">
+        <v>0.7356543209876</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/isomif2019/Benchmark_isomif_parameters.xlsx
+++ b/isomif2019/Benchmark_isomif_parameters.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="github files" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Resumen" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="zip files" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Test github" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Test zip" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="147">
   <si>
     <t xml:space="preserve">Isomif Paper</t>
   </si>
@@ -470,18 +471,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -504,18 +507,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -560,7 +566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -605,6 +611,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -630,46 +640,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.91326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.78061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.37244897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="6.88265306122449"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.56632653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="2.42857142857143"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="37" min="36" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9464,9 +9472,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="2" t="s">
@@ -10165,33 +10170,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="2.69897959183673"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16171,27 +16177,27 @@
   </sheetPr>
   <dimension ref="B2:AA106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z9" activeCellId="0" sqref="Z9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.6734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.53061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.69387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.51530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.02551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.53061224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="23.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.62244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21686,4 +21692,3540 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:O105"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.02551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.70408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.18367346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.36224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.03061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.03061224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.86734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>0.687037037037</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.800617283951</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>0.525925925926</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.464197530864</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0.538888888889</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.551851851852</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>0.565432098765</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.575308641975</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0.573456790123</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.681481481481</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="11" t="n">
+        <v>0.516666666667</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.578395061728</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D5:D14,1)</f>
+        <v>0.6375</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>0.391975308642</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D5:D14,2)</f>
+        <v>0.725</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>0.525925925926</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.574074074074</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D5:D14,3)</f>
+        <v>0.765</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <v>0.818518518519</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.849382716049</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">AVERAGE(D5:D14)</f>
+        <v>0.705</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11" t="n">
+        <v>0.607407407407</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.606790123457</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="I15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <v>0.352469135802</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.39012345679</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>0.498148148148</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.53024691358</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>0.241358024691</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.188888888889</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>0.565432098765</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.585802469136</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="I20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>0.502469135802</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.553703703704</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D15:D24,1)</f>
+        <v>0.59</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>0.762345679012</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.796913580247</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D15:D24,2)</f>
+        <v>0.635</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="11" t="n">
+        <v>0.565432098765</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.53950617284</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D15:D24,3)</f>
+        <v>0.685</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>0.515432098765</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.550617283951</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <f aca="false">AVERAGE(D15:D24)</f>
+        <v>0.605</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="11" t="n">
+        <v>0.203703703704</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.206790123457</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="11" t="n">
+        <v>0.804320987654</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.825308641975</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="11" t="n">
+        <v>0.706790123457</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.744444444444</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>0.508641975309</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.524074074074</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="I28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>0.530864197531</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.576543209877</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="I29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <v>0.866049382716</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.924691358025</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="I30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="11" t="n">
+        <v>0.62037037037</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.647530864198</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D25:D34,1)</f>
+        <v>0.8275</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="11" t="n">
+        <v>0.692592592593</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.638888888889</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D25:D34,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="11" t="n">
+        <v>0.62037037037</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.603703703704</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D25:D34,3)</f>
+        <v>0.885</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="11" t="n">
+        <v>0.69012345679</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.716049382716</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <f aca="false">AVERAGE(D25:D34)</f>
+        <v>0.861</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="11" t="n">
+        <v>0.503086419753</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.503086419753</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="11" t="n">
+        <v>0.767901234568</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.77037037037</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="11" t="n">
+        <v>0.678395061728</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.667901234568</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="11" t="n">
+        <v>0.724074074074</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.753086419753</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="11" t="n">
+        <v>0.901851851852</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.922222222222</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="11" t="n">
+        <v>0.727160493827</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.72037037037</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="I40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="11" t="n">
+        <v>0.595061728395</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.606172839506</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D35:D44,1)</f>
+        <v>0.8725</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="11" t="n">
+        <v>0.937037037037</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.946296296296</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D35:D44,2)</f>
+        <v>0.91</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="11" t="n">
+        <v>0.598765432099</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.638888888889</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D35:D44,3)</f>
+        <v>0.9575</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="11" t="n">
+        <v>0.691975308642</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.721604938272</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <f aca="false">AVERAGE(D35:D44)</f>
+        <v>0.911</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="11" t="n">
+        <v>0.956790123457</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.983950617284</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="11" t="n">
+        <v>0.693827160494</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.711111111111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="I46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="11" t="n">
+        <v>0.983950617284</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.987654320988</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="11" t="n">
+        <v>0.773456790123</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.934567901235</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="11" t="n">
+        <v>0.82962962963</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.893827160494</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="I49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="11" t="n">
+        <v>0.812962962963</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.837037037037</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="I50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="11" t="n">
+        <v>0.738888888889</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.801234567901</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D45:D54,1)</f>
+        <v>0.8075</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="11" t="n">
+        <v>0.822839506173</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.86049382716</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D45:D54,2)</f>
+        <v>0.885</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="11" t="n">
+        <v>0.908024691358</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0.941975308642</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D45:D54,3)</f>
+        <v>0.92</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="11" t="n">
+        <v>0.832098765432</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.901234567901</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <f aca="false">AVERAGE(D45:D54)</f>
+        <v>0.861</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="11" t="n">
+        <v>0.833333333333</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0.903703703704</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="I55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="11" t="n">
+        <v>0.830864197531</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.850617283951</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="11" t="n">
+        <v>0.91975308642</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0.949382716049</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="I57" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="11" t="n">
+        <v>0.943209876543</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0.958641975309</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="I58" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="11" t="n">
+        <v>0.685802469136</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="11" t="n">
+        <v>0.861728395062</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0.975308641975</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="I60" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="11" t="n">
+        <v>0.606790123457</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D55:D64,1)</f>
+        <v>0.92</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="11" t="n">
+        <v>0.943827160494</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0.949382716049</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D55:D64,2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11" t="n">
+        <v>0.911111111111</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0.948148148148</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D55:D64,3)</f>
+        <v>0.95</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="11" t="n">
+        <v>0.778395061728</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>0.851851851852</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <f aca="false">AVERAGE(D55:D64)</f>
+        <v>0.921</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="11" t="n">
+        <v>0.917901234568</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0.914814814815</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="I65" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="11" t="n">
+        <v>0.887654320988</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>0.924691358025</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="I66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="11" t="n">
+        <v>0.972222222222</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0.948148148148</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="I67" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="11" t="n">
+        <v>0.936419753086</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0.971604938272</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="I68" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="11" t="n">
+        <v>0.959259259259</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0.974074074074</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="I69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="11" t="n">
+        <v>0.498765432099</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0.57962962963</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="I70" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="11" t="n">
+        <v>0.925925925926</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0.951234567901</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D65:D74,1)</f>
+        <v>0.9475</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="11" t="n">
+        <v>0.438888888889</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0.521604938272</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D65:D74,2)</f>
+        <v>0.97</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="11" t="n">
+        <v>0.935802469136</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0.948765432099</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D65:D74,3)</f>
+        <v>0.97</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="11" t="n">
+        <v>0.642592592593</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0.630864197531</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <f aca="false">AVERAGE(D65:D74)</f>
+        <v>0.964</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K74" s="11" t="n">
+        <v>0.950617283951</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0.97037037037</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="I75" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="11" t="n">
+        <v>0.635802469136</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0.616666666667</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="I76" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" s="11" t="n">
+        <v>0.859259259259</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>0.89012345679</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="I77" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="11" t="n">
+        <v>0.616049382716</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>0.534567901235</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="I78" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="11" t="n">
+        <v>0.872839506173</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>0.899382716049</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="I79" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" s="11" t="n">
+        <v>0.870987654321</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>0.917901234568</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="I80" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" s="11" t="n">
+        <v>0.704320987654</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>0.658024691358</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D75:D84,1)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="11" t="n">
+        <v>0.955555555556</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0.896296296296</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D75:D84,2)</f>
+        <v>0.845</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" s="11" t="n">
+        <v>0.505555555556</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0.661111111111</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D75:D84,3)</f>
+        <v>0.8825</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="11" t="n">
+        <v>0.779012345679</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0.929012345679</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <f aca="false">AVERAGE(D75:D84)</f>
+        <v>0.744</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" s="11" t="n">
+        <v>0.633333333333</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>0.772222222222</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="I85" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" s="11" t="n">
+        <v>0.765432098765</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0.745679012346</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="I86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" s="11" t="n">
+        <v>0.665432098765</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>0.622839506173</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="I87" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K87" s="11" t="n">
+        <v>0.645061728395</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>0.666666666667</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="I88" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" s="11" t="n">
+        <v>0.476543209877</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>0.470987654321</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="I89" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89" s="11" t="n">
+        <v>0.546296296296</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <v>0.688271604938</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="I90" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K90" s="11" t="n">
+        <v>0.78024691358</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>0.769135802469</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D85:D94,1)</f>
+        <v>0.5825</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K91" s="11" t="n">
+        <v>0.613580246914</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>0.614814814815</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D85:D94,2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K92" s="11" t="n">
+        <v>0.687654320988</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0.67962962963</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D85:D94,3)</f>
+        <v>0.8325</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K93" s="11" t="n">
+        <v>0.815432098765</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>0.75987654321</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <f aca="false">AVERAGE(D85:D94)</f>
+        <v>0.691</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="11" t="n">
+        <v>0.512345679012</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>0.535185185185</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="I95" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" s="11" t="n">
+        <v>0.875308641975</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>0.788271604938</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="I96" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96" s="11" t="n">
+        <v>0.738271604938</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>0.750617283951</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="I97" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K97" s="11" t="n">
+        <v>0.785802469136</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>0.806790123457</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="I98" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K98" s="11" t="n">
+        <v>0.821604938272</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>0.87037037037</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="I99" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" s="11" t="n">
+        <v>0.791358024691</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>0.796913580247</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="I100" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" s="11" t="n">
+        <v>0.948148148148</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>0.93024691358</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D95:D104,1)</f>
+        <v>0.7075</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" s="11" t="n">
+        <v>0.685802469136</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>0.691975308642</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D95:D104,2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" s="11" t="n">
+        <v>0.813580246914</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <v>0.781481481481</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(D95:D104,3)</f>
+        <v>0.83</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" s="11" t="n">
+        <v>0.509259259259</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <v>0.583950617284</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <f aca="false">AVERAGE(D95:D104)</f>
+        <v>0.766</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" s="11" t="n">
+        <v>0.943209876543</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>0.961728395062</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <f aca="false">AVERAGE(D5:D104)</f>
+        <v>0.8029</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K105" s="11" t="n">
+        <v>0.712098765432</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>0.736425925926</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>